--- a/medicine/Mort/Décès_en_1939/Décès_en_1939.xlsx
+++ b/medicine/Mort/Décès_en_1939/Décès_en_1939.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1939</t>
+          <t>Décès_en_1939</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1939</t>
+          <t>Décès_en_1939</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,8 +540,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Date précise inconnue
-Olga Andersen, femme politique norvégienne, (° 1886).
+          <t>Date précise inconnue</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Olga Andersen, femme politique norvégienne, (° 1886).
 William Attrill, joueur de cricket et footballeur français (° mars 1868).
 Joseph Marius Jean Avy, peintre de genre, paysages, décoration murales, pastelliste et illustrateur français (° 21 septembre 1871).
 Jean Berne-Bellecour, peintre français (° 14 août 1874).
@@ -550,9 +567,43 @@
 Antony Troncet, peintre, graveur et illustrateur français (° 23 mai 1879).
 Ludovic Vallée, peintre pointilliste français (° 1864).
 Après 1939 :
-Rosine Déchenaud, peintre pastelliste française (° 1881).
-Janvier
-5 janvier : Lisandro de la Torre, homme politique, avocat, journaliste et essayiste argentin (° 6 décembre 1868).
+Rosine Déchenaud, peintre pastelliste française (° 1881).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1939</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1939</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>5 janvier : Lisandro de la Torre, homme politique, avocat, journaliste et essayiste argentin (° 6 décembre 1868).
 9 janvier : Johann III Strauss, compositeur autrichien (° 16 février 1866).
 10 janvier : Leroy-Dionet, peintre français  (° 23 décembre 1860).
 18 janvier : Ivan Mosjoukine, acteur et cinéaste russe puis soviétique (° 26 septembre 1889).
@@ -561,9 +612,43 @@
 Alfred Bourgeois, politicien canadien (° 26 octobre 1872).
 Manuel Penella, compositeur espagnol (° 31 juillet 1880).
 28 janvier : William Butler Yeats, poète irlandais (° 10 février 1903).
-29 janvier : Matthias Sindelar, footballeur autrichien (° 26 septembre 1889).
-Février
-1er février : Maurice Houtart, homme politique belge (° 5 juillet 1866).
+29 janvier : Matthias Sindelar, footballeur autrichien (° 26 septembre 1889).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1939</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1939</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1er février : Maurice Houtart, homme politique belge (° 5 juillet 1866).
 2 février : Anatole Deibler, bourreau français (° 29 novembre 1863).
 5 février : Soledad Gustavo, intellectuelle espagnole (° 29 novembre 1865).
 7 février :
@@ -585,9 +670,43 @@
 26 février :
 Louis-Alexandre Cabié, peintre français (° 16 novembre 1854).
 Stanislav Kossior, homme politique russe puis soviétique (° 18 novembre 1889).
-? février : Jenny Zillhardt, peintre française (° 16 mars 1857).
-Mars
-2 mars : Howard Carter, archéologue et égyptologue britannique (° 9 mai 1874).
+? février : Jenny Zillhardt, peintre française (° 16 mars 1857).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1939</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1939</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2 mars : Howard Carter, archéologue et égyptologue britannique (° 9 mai 1874).
 6 mars, Michel Levie, homme politique belge (° 4 octobre 1861).
 8 mars :
 Henry Pellatt, homme d'affaires et militaire canadien (° 6 janvier 1859).
@@ -599,15 +718,83 @@
 30 mars : Jean de Francqueville, peintre et maire français (° 17 février 1860).
 31 mars :
 Marie Fournets-Vernaud, peintre française (° 27 octobre 1859).
-Ion Theodorescu-Sion, peintre roumain (° 2 janvier 1882).
-Avril
-11 avril : Onorato Carlandi, peintre italien (° 15 mai 1848).
+Ion Theodorescu-Sion, peintre roumain (° 2 janvier 1882).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1939</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1939</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>11 avril : Onorato Carlandi, peintre italien (° 15 mai 1848).
 18 avril : Marcel Couchaux,  peintre français de l'École de Rouen (° 23 novembre 1877).
 24 avril : Louis Trousselier, coureur cycliste français (° 29 juin 1881).
 25 avril : Georges Ricard-Cordingley, peintre français (° 30 janvier 1873).
-? avril : Charles Denet, peintre français (° 10 février 1853).
-Mai
-1er mai : Bautista Saavedra Mallea, avocat, professeur universitaire, sociologue, journaliste, homme politique et diplomate bolivien (° 30 août 1870).
+? avril : Charles Denet, peintre français (° 10 février 1853).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1939</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1939</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1er mai : Bautista Saavedra Mallea, avocat, professeur universitaire, sociologue, journaliste, homme politique et diplomate bolivien (° 30 août 1870).
 2 mai : Warren Cook, acteur du cinéma muet américain (° 23 mai 1878).
 6 mai : Constantin Somov, peintre russe (° 30 novembre 1869).
 8 mai : Pierre Vaillant, peintre et graveur français (° 30 janvier 1878).
@@ -615,9 +802,43 @@
 13 mai : Stanisław Leśniewski, mathématicien et philosophe polonais (° 30 mars 1886).
 15 mai : Percy Sherwood, compositeur et pianiste germano-britannique (° 23 mai 1873).
 30 mai : Charles-Paul Chaigneau, peintre français (° 12 juin 1879).
-? mai : Frédérique Charlaix, peintre française (° 1883).
-Juin
-2 juin : Enrique Fernández Arbós, violoniste, chef d'orchestre et compositeur espagnol (° 24 décembre 1863).
+? mai : Frédérique Charlaix, peintre française (° 1883).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1939</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1939</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2 juin : Enrique Fernández Arbós, violoniste, chef d'orchestre et compositeur espagnol (° 24 décembre 1863).
 5 juin : Xu Shichang, homme politique chinois (° 20 octobre 1855).
 6 juin : Sabine Hackenschmidt, peintre et graveuse française (° 13 mai 1863).
 7 juin : Robert Louis Antral, peintre, graveur et lithographe français (° 13 juillet 1895).
@@ -626,18 +847,86 @@
 27 juin :
 Alix Marquet, sculpteur et peintre français (° 8 janvier 1875).
 Pierre-Gaston Rigaud, peintre français (° 4 août 1874).
-30 juin : Henri Rapin, peintre, illustrateur et décorateur français (° 24 février 1873).
-Juillet
-12 juillet : Fernand Rinfret, maire de Montréal et politicien.
+30 juin : Henri Rapin, peintre, illustrateur et décorateur français (° 24 février 1873).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1939</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1939</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12 juillet : Fernand Rinfret, maire de Montréal et politicien.
 14 juillet : Alphonse Mucha, peintre austro-hongrois puis tchécoslovaque (° 24 juillet 1860).
 15 juillet : Louis de Monard, peintre et sculpteur animalier français (° 31 janvier 1873).
 16 juillet : Henri Le Sidaner, peintre post-impressionniste français (° 7 août 1862).
 17 juillet : Pierre Vellones, peintre et compositeur français (° 29 mars 1889).
 21 juillet : Charles Malfroy, peintre français (° 27 mai 1862).
 23 juillet : Carl Moser, peintre et graveur autrichien (° 27 janvier 1873).
-29 juillet : Raymond Brown, acteur américain (° 16 août 1874).
-Août
-3 août : August Enna, compositeur danois (° 13 mai 1859).
+29 juillet : Raymond Brown, acteur américain (° 16 août 1874).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1939</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1939</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>3 août : August Enna, compositeur danois (° 13 mai 1859).
 5 août : Charles du Bos, écrivain et critique littéraire (° 27 octobre 1882).
 11 août : Alphonse Osbert, peintre symboliste français (° 23 mars 1857).
 14 août : Isaak Brodsky, peintre russe puis soviétique (° 6 janvier 1884).
@@ -645,9 +934,43 @@
 25 août : Jan Vos, footballeur international néerlandais (° 17 avril 1888).
 26 août :
 Angèle Delasalle, peintre et aquafortiste française (° 15 février 1867).
-Louis Heusghem, coureur cycliste belge (° 26 décembre 1882).
-Septembre
-8 septembre :
+Louis Heusghem, coureur cycliste belge (° 26 décembre 1882).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1939</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1939</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>8 septembre :
 Maurice George Moore, militaire et homme politique irlandais (° 10 août 1854).
 Josef Wenig, peintre, illustrateur, scénographe et costumier austro-hongrois puis tchécoslovaque (° 12 février 1885).
 12 septembre : Paul Rouvière, architecte  français (° 11 octobre 1906).
@@ -659,14 +982,82 @@
 Sigmund Freud, neurologue et psychiatre (° 6 mai 1856).
 Eugeniusz Kazimirowski, peintre polonais (° 11 novembre 1873).
 Frits van den Berghe, peintre, graveur et dessinateur belge (° 3 avril 1883).
-24 septembre : René Berti, peintre et graveur italien (° 26 octobre 1884).
-Octobre
-3 octobre : Marcel Buysse, coureur cycliste belge (° 11 novembre 1889).
+24 septembre : René Berti, peintre et graveur italien (° 26 octobre 1884).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1939</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1939</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>3 octobre : Marcel Buysse, coureur cycliste belge (° 11 novembre 1889).
 13 octobre : Louise Germain, peintre française (° 22 avril 1874).
 17 octobre : Florane, peintre, dessinateur et illustrateur français (° 7 novembre 1871).
-30 octobre : Ernesto Murolo, poète, dramaturge et journaliste italien (° 4 avril 1876).
-Novembre
-1er novembre :
+30 octobre : Ernesto Murolo, poète, dramaturge et journaliste italien (° 4 avril 1876).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1939</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1939</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1er novembre :
 Aloïs Catteau, coureur cycliste belge (° 11 août 1877).
 Charles Weinberger, compositeur autrichien d'opérettes (° 3 avril 1861).
 5 novembre : Charles Barrois, géologue français (° 21 avril 1851).
@@ -676,9 +1067,43 @@
 11 novembre : Kagaku Murakami, peintre et illustrateur japonais (° 3 juillet 1888).
 13 novembre : Antoine-Louis Manceaux, peintre, illustrateur et lithographe français (° 27 octobre 1862).
 20 novembre : Désiré Pâque, compositeur, pianiste, organiste, chef d'orchestre, pédagogue et théoricien belge (° 21 mai 1867).
-28 novembre : James Naismith, inventeur du jeu de basket-ball canadien (° 6 novembre 1861).
-Décembre
-3 décembre : Hasan Tahsin Uzer, haut fonctionnaire et homme politique ottoman et turc (° 29 août 1877).
+28 novembre : James Naismith, inventeur du jeu de basket-ball canadien (° 6 novembre 1861).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1939</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1939</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>3 décembre : Hasan Tahsin Uzer, haut fonctionnaire et homme politique ottoman et turc (° 29 août 1877).
 4 décembre : Wu Peifu, militaire et homme politique chinois (° 22 avril 1874).
 5 décembre : Victor Gilsoul, peintre belge (° 9 octobre 1867).
 8 décembre : Jean Leroy, peintre et sculpteur belge (° 24 février 1896).
